--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail10 Features.xlsx
@@ -3586,7 +3586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3597,29 +3597,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3640,115 +3638,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3765,72 +3753,66 @@
         <v>1.166654114660272e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6044399332069034</v>
+        <v>6.484316350675146e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.9486526584412163</v>
+        <v>8.989832545041389e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.484316350675146e-07</v>
+        <v>-0.07292861497710976</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.989832545041389e-06</v>
+        <v>0.3211381625003309</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.07292861497710976</v>
+        <v>0.1083407173366586</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3211381625003309</v>
+        <v>1.690846892945852</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1083407173366586</v>
+        <v>1.635395892930092</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.590392854538455</v>
+        <v>4.106187521216928</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.635395892930092</v>
+        <v>3.378439067250064e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.106187521216928</v>
+        <v>17435434.07449251</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.378439067250064e-14</v>
+        <v>6.482029064702027e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>17435434.07449251</v>
+        <v>10.27026426662541</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.482029064702027e-06</v>
+        <v>0.0001151883128655692</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10.27026426662541</v>
+        <v>7.480618734724323</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001151883128655692</v>
+        <v>1.390532815519075</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.480618734724323</v>
+        <v>0.006445898438546323</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.390532815519075</v>
+        <v>3.194635707766927</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006445898438546323</v>
+        <v>0.9542603210883753</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.194635707766927</v>
+        <v>1.791714377028538</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9542603210883753</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.791714377028538</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2042031584185068</v>
       </c>
     </row>
@@ -3845,72 +3827,66 @@
         <v>1.061392554942401e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2342919260094309</v>
+        <v>5.350683426785207e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.04012346730658134</v>
+        <v>8.982030347023632e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.350683426785207e-07</v>
+        <v>-0.06815375756574657</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.982030347023632e-06</v>
+        <v>0.33006003199266</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.06815375756574657</v>
+        <v>0.1135350782152853</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.33006003199266</v>
+        <v>1.684466051868551</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1135350782152853</v>
+        <v>1.584812587704981</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.58852820170495</v>
+        <v>4.036913515611612</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.584812587704981</v>
+        <v>3.495382899998267e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.036913515611612</v>
+        <v>16970234.9751194</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.495382899998267e-14</v>
+        <v>6.646251076651139e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>16970234.9751194</v>
+        <v>10.06631389451907</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.646251076651139e-06</v>
+        <v>0.0001157965260952101</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10.06631389451907</v>
+        <v>9.319659303923515</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001157965260952101</v>
+        <v>1.237010128641179</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.319659303923515</v>
+        <v>0.01005762880722537</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.237010128641179</v>
+        <v>3.044505940077727</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01005762880722537</v>
+        <v>0.9550689312366574</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.044505940077727</v>
+        <v>1.801005727373386</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9550689312366574</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.801005727373386</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2085385045209265</v>
       </c>
     </row>
@@ -3925,72 +3901,66 @@
         <v>9.981753612161213e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.02447082157004217</v>
+        <v>4.570150009874204e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5287603935043768</v>
+        <v>8.975284187835631e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.570150009874204e-07</v>
+        <v>-0.0626846953322079</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.975284187835631e-06</v>
+        <v>0.3390395940008457</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0626846953322079</v>
+        <v>0.1188431245175246</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3390395940008457</v>
+        <v>1.682312113704518</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1188431245175246</v>
+        <v>1.579787043626017</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.587314757188599</v>
+        <v>3.951632587931205</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.579787043626017</v>
+        <v>3.647879900874345e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.951632587931205</v>
+        <v>16151311.55779252</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.647879900874345e-14</v>
+        <v>6.990686503816486e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>16151311.55779252</v>
+        <v>9.51603698012341</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.990686503816486e-06</v>
+        <v>0.0001210532876969621</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.51603698012341</v>
+        <v>11.72242641382537</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001210532876969621</v>
+        <v>1.220285734726629</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.72242641382537</v>
+        <v>0.01663457154818698</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.220285734726629</v>
+        <v>3.073000191788832</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01663457154818698</v>
+        <v>0.9557729361063095</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.073000191788832</v>
+        <v>1.791668451964074</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9557729361063095</v>
+        <v>8</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.791668451964074</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2159512229392016</v>
       </c>
     </row>
@@ -4005,72 +3975,66 @@
         <v>9.623825632707769e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.05065633703264823</v>
+        <v>3.872685736462344e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.698959066633472</v>
+        <v>8.9696113045908e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.872685736462344e-07</v>
+        <v>-0.05246853431290874</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.9696113045908e-06</v>
+        <v>0.3412555450651313</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05246853431290874</v>
+        <v>0.1191768308209163</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3412555450651313</v>
+        <v>1.668894934992338</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1191768308209163</v>
+        <v>1.601670147389728</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.577027180668554</v>
+        <v>3.818764442241535</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.601670147389728</v>
+        <v>3.906140928806248e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.818764442241535</v>
+        <v>15492622.12166875</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.906140928806248e-14</v>
+        <v>7.254582861892378e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>15492622.12166875</v>
+        <v>9.375571807609761</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.254582861892378e-06</v>
+        <v>0.0001245237498433483</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>9.375571807609761</v>
+        <v>11.21528400349067</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001245237498433483</v>
+        <v>1.352852271294674</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.21528400349067</v>
+        <v>0.01566292042916355</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.352852271294674</v>
+        <v>3.227066389890163</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01566292042916355</v>
+        <v>0.9547752144129502</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.227066389890163</v>
+        <v>1.767424712985185</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9547752144129502</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.767424712985185</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2176342511031878</v>
       </c>
     </row>
@@ -4085,72 +4049,66 @@
         <v>9.446703097476087e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.02865486634932909</v>
+        <v>3.740828915409096e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7004358834207172</v>
+        <v>8.965178466809861e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.740828915409096e-07</v>
+        <v>-0.04110326250678871</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.965178466809861e-06</v>
+        <v>0.3390898212217169</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04110326250678871</v>
+        <v>0.1166453905533987</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3390898212217169</v>
+        <v>1.640145210766683</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1166453905533987</v>
+        <v>1.551624721598751</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.541147443615487</v>
+        <v>3.829094836875627</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.551624721598751</v>
+        <v>3.885092849904093e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.829094836875627</v>
+        <v>16096471.78634349</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.885092849904093e-14</v>
+        <v>6.948016800332077e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>16096471.78634349</v>
+        <v>10.06613586494085</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.948016800332077e-06</v>
+        <v>0.0001182277907872339</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10.06613586494085</v>
+        <v>8.034245719854692</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001182277907872339</v>
+        <v>1.697956343628557</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.034245719854692</v>
+        <v>0.007631497997147183</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.697956343628557</v>
+        <v>3.324338802238672</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007631497997147183</v>
+        <v>0.9527402970662013</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.324338802238672</v>
+        <v>1.807792014261487</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9527402970662013</v>
+        <v>9</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.807792014261487</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2106627321377358</v>
       </c>
     </row>
@@ -4165,72 +4123,66 @@
         <v>9.406936970074776e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.03355568752547189</v>
+        <v>3.740828915409096e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.685344545192708</v>
+        <v>8.961709449539346e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.740828915409096e-07</v>
+        <v>-0.03334772186091836</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.961709449539346e-06</v>
+        <v>0.3324314124984104</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03334772186091836</v>
+        <v>0.1115966930433232</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3324314124984104</v>
+        <v>1.642163274809271</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1115966930433232</v>
+        <v>1.520319031179284</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.542661217240648</v>
+        <v>3.986482848922795</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.520319031179284</v>
+        <v>3.470113191924987e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.986482848922795</v>
+        <v>18155535.93578681</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.470113191924987e-14</v>
+        <v>6.16040702621294e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>18155535.93578681</v>
+        <v>11.43830804068094</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.16040702621294e-06</v>
+        <v>0.0001170722604054105</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>11.43830804068094</v>
+        <v>7.093802209933143</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001170722604054105</v>
+        <v>1.545955265372517</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.093802209933143</v>
+        <v>0.005891313776131292</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.545955265372517</v>
+        <v>3.238994053934925</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005891313776131292</v>
+        <v>0.9531094579415855</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.238994053934925</v>
+        <v>1.807885933836181</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9531094579415855</v>
+        <v>9</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.807885933836181</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2076314365394271</v>
       </c>
     </row>
@@ -4245,72 +4197,66 @@
         <v>9.482074476252436e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.09092557152311241</v>
+        <v>3.740828915409096e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.7203397108458538</v>
+        <v>8.958773569726115e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.740828915409096e-07</v>
+        <v>-0.02945791592348475</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.958773569726115e-06</v>
+        <v>0.3257738401196817</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02945791592348475</v>
+        <v>0.1069788920517859</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3257738401196817</v>
+        <v>1.663873758949368</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1069788920517859</v>
+        <v>1.74244406309284</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.562963644016362</v>
+        <v>4.069767165297727</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.74244406309284</v>
+        <v>3.147469275987661e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.069767165297727</v>
+        <v>19696449.34887702</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.147469275987661e-14</v>
+        <v>5.722812355691631e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>19696449.34887702</v>
+        <v>12.21061073725004</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.722812355691631e-06</v>
+        <v>0.000115445345987402</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>12.21061073725004</v>
+        <v>7.546857525299774</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000115445345987402</v>
+        <v>1.371490244862269</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.546857525299774</v>
+        <v>0.006575196435093409</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.371490244862269</v>
+        <v>3.157297854417407</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006575196435093409</v>
+        <v>0.9534494314923602</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.157297854417407</v>
+        <v>1.805699792267689</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9534494314923602</v>
+        <v>7</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.805699792267689</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2122823456711394</v>
       </c>
     </row>
@@ -4325,72 +4271,66 @@
         <v>9.637128323860739e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1210208651123024</v>
+        <v>3.740828915409096e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7854035326172069</v>
+        <v>8.956103452518304e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.740828915409096e-07</v>
+        <v>-0.02642365874607733</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.956103452518304e-06</v>
+        <v>0.3182357988173853</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02642365874607733</v>
+        <v>0.1019622801150503</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3182357988173853</v>
+        <v>1.673430206674569</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1019622801150503</v>
+        <v>1.674440418243528</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.572288988343476</v>
+        <v>3.988176497688171</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.674440418243528</v>
+        <v>3.277569328879327e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.988176497688171</v>
+        <v>18922428.16369474</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.277569328879327e-14</v>
+        <v>5.959916976974085e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>18922428.16369474</v>
+        <v>11.73560861422205</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.959916976974085e-06</v>
+        <v>0.0001104457307488396</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>11.73560861422205</v>
+        <v>7.743917618337713</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001104457307488396</v>
+        <v>1.201409566269987</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.743917618337713</v>
+        <v>0.006623238306228023</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.201409566269987</v>
+        <v>3.130121427017947</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006623238306228023</v>
+        <v>0.9529489478496115</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.130121427017947</v>
+        <v>1.80780470885529</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9529489478496115</v>
+        <v>7</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.80780470885529</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2234078927059946</v>
       </c>
     </row>
@@ -4767,7 +4707,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.417409654643519</v>
+        <v>1.381338834950593</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.471651544942949</v>
@@ -4856,7 +4796,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.432388035008947</v>
+        <v>1.39328581640507</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.418122480322662</v>
@@ -4945,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.429337021303018</v>
+        <v>1.387894590968431</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.529378517446565</v>
@@ -5034,7 +4974,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.423864185709212</v>
+        <v>1.380391365959125</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.458910014549017</v>
@@ -5123,7 +5063,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.433602079897517</v>
+        <v>1.388564379060172</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.356396191847545</v>
@@ -5212,7 +5152,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.441685049677164</v>
+        <v>1.396572218377259</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.45430977400028</v>
@@ -5301,7 +5241,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.443021326640302</v>
+        <v>1.397360668718441</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.331549159669042</v>
@@ -5390,7 +5330,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.453615737410866</v>
+        <v>1.419698820834467</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.621922868137629</v>
@@ -5479,7 +5419,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.43500703726282</v>
+        <v>1.402363694780222</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.383352259353472</v>
@@ -5568,7 +5508,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.452704514094641</v>
+        <v>1.41138659085165</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.288636336968552</v>
@@ -5657,7 +5597,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.481191439064652</v>
+        <v>1.440947282155306</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.53934422518612</v>
@@ -5746,7 +5686,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.487040587582942</v>
+        <v>1.443341324591522</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.714122751998425</v>
@@ -5835,7 +5775,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.46869447023871</v>
+        <v>1.427955978898021</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.625369492554738</v>
@@ -5924,7 +5864,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.454459336296956</v>
+        <v>1.413242187263093</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.664706355950857</v>
@@ -6013,7 +5953,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.453441021411949</v>
+        <v>1.412481214427521</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.692575855075692</v>
@@ -6102,7 +6042,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.457424084599755</v>
+        <v>1.410651604915707</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.748441653815029</v>
@@ -6191,7 +6131,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.462003026196699</v>
+        <v>1.410962740437583</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.736829328194604</v>
@@ -6280,7 +6220,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.444635273229603</v>
+        <v>1.395551703990511</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.615886101470074</v>
@@ -6369,7 +6309,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.433024989004606</v>
+        <v>1.388725274377274</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.567383531153859</v>
@@ -6458,7 +6398,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.42951490393965</v>
+        <v>1.385675096166459</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.727629488122939</v>
@@ -6547,7 +6487,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.460417463335251</v>
+        <v>1.413606726950713</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.915050897511725</v>
@@ -6636,7 +6576,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.412286742134182</v>
+        <v>1.370118310644934</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.907341913088997</v>
@@ -6725,7 +6665,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.413927569964313</v>
+        <v>1.367405233594679</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.827731404334407</v>
@@ -6814,7 +6754,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.415664325548086</v>
+        <v>1.364570630417934</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.892407387705895</v>
@@ -6903,7 +6843,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.412954720824615</v>
+        <v>1.367434792697235</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.908660400755682</v>
@@ -6992,7 +6932,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.386016803551241</v>
+        <v>1.344430768924539</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.916943902751448</v>
@@ -7081,7 +7021,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.376043657506911</v>
+        <v>1.337968654585938</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.883395526706258</v>
@@ -7170,7 +7110,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.359236129451584</v>
+        <v>1.319020069029948</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.934911641520128</v>
@@ -7259,7 +7199,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.366594219384826</v>
+        <v>1.327141685919942</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.936798304398753</v>
@@ -7348,7 +7288,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.36908614285947</v>
+        <v>1.327271495241776</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.927430705727228</v>
@@ -7437,7 +7377,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.366174633087036</v>
+        <v>1.325745648155846</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.87522632465858</v>
@@ -7526,7 +7466,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.370320984557874</v>
+        <v>1.331200100040804</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.932896683974965</v>
@@ -7615,7 +7555,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.385457012557315</v>
+        <v>1.344541582674831</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.832494672515225</v>
@@ -7704,7 +7644,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.387841249323154</v>
+        <v>1.340167775283422</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.862613598844495</v>
@@ -7793,7 +7733,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.374574082925867</v>
+        <v>1.331416932634233</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.911112341379382</v>
@@ -7882,7 +7822,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.348373319688737</v>
+        <v>1.314664854569944</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.852776883227936</v>
@@ -7971,7 +7911,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.35431624031114</v>
+        <v>1.318662083457209</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.843000974336114</v>
@@ -8060,7 +8000,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.284729447695917</v>
+        <v>1.263286464272274</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.850210320365518</v>
@@ -8149,7 +8089,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.287844792323112</v>
+        <v>1.266487379428108</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.839121904976916</v>
@@ -8238,7 +8178,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.286032176510833</v>
+        <v>1.2652339444968</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.836905625288108</v>
@@ -8327,7 +8267,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.298051985014838</v>
+        <v>1.273976591022299</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.819349179143649</v>
@@ -8416,7 +8356,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.304184520096064</v>
+        <v>1.27769934069988</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.785642146316122</v>
@@ -8505,7 +8445,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.321630451718713</v>
+        <v>1.297872819128373</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.786895334071265</v>
@@ -8594,7 +8534,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.318899755365963</v>
+        <v>1.293211193041596</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.802003489231375</v>
@@ -8683,7 +8623,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.315900746916863</v>
+        <v>1.291920209413303</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.796674026188305</v>
@@ -8772,7 +8712,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.308961912606404</v>
+        <v>1.285818956608015</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.773576991775986</v>
@@ -8861,7 +8801,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.309280005108723</v>
+        <v>1.285980250787082</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.776983538342475</v>
@@ -8950,7 +8890,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.303856091966464</v>
+        <v>1.280672381226553</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.792162317135705</v>
@@ -9039,7 +8979,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.300268813768128</v>
+        <v>1.27799005925719</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.757961555692851</v>
@@ -9128,7 +9068,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.305839762253244</v>
+        <v>1.281216753400331</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.750143333181591</v>
@@ -9217,7 +9157,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.319284478667768</v>
+        <v>1.291853448170751</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.727115678057102</v>
@@ -9306,7 +9246,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.397752561915804</v>
+        <v>1.354942743639512</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.803907021045594</v>
@@ -9395,7 +9335,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.447038847262752</v>
+        <v>1.39519429524761</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.335274687103493</v>
@@ -9681,7 +9621,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.400285571466151</v>
+        <v>1.367239516898735</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.54392501925528</v>
@@ -9770,7 +9710,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.391545263034444</v>
+        <v>1.355366901826075</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.379952401753325</v>
@@ -9859,7 +9799,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.386315116109099</v>
+        <v>1.353250831820191</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.527711764509255</v>
@@ -9948,7 +9888,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.38485965382965</v>
+        <v>1.35173834244787</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.510591231757438</v>
@@ -10037,7 +9977,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.402147565547422</v>
+        <v>1.368708577715461</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.357446674487335</v>
@@ -10126,7 +10066,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408700625243002</v>
+        <v>1.376914286998054</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.602803337959075</v>
@@ -10215,7 +10155,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.412154613058498</v>
+        <v>1.382790544013963</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.552558059922585</v>
@@ -10304,7 +10244,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.419981620968739</v>
+        <v>1.39735638935459</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.468387831514437</v>
@@ -10393,7 +10333,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.423255092571298</v>
+        <v>1.393443217982995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.310514367156732</v>
@@ -10482,7 +10422,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.424195576310086</v>
+        <v>1.387857798314652</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.345439638284355</v>
@@ -10571,7 +10511,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.424321496993717</v>
+        <v>1.390189771509242</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.322268627850529</v>
@@ -10660,7 +10600,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.435214958268172</v>
+        <v>1.396217173060274</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.404647020924451</v>
@@ -10749,7 +10689,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.428769561314784</v>
+        <v>1.389781933938933</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.346584854863095</v>
@@ -10838,7 +10778,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.420678434866686</v>
+        <v>1.383214076765356</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.510743804835012</v>
@@ -10927,7 +10867,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.43035427770927</v>
+        <v>1.388335156399346</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.522733623823993</v>
@@ -11016,7 +10956,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.427672833625603</v>
+        <v>1.381667963423978</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.465635948363972</v>
@@ -11105,7 +11045,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.425445509279475</v>
+        <v>1.378013561269197</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.395024378155052</v>
@@ -11194,7 +11134,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.421879790848979</v>
+        <v>1.374893937650234</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.503365114286231</v>
@@ -11283,7 +11223,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.417586029136635</v>
+        <v>1.372012758682322</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.460542017126081</v>
@@ -11372,7 +11312,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.404007007710555</v>
+        <v>1.360087826951375</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.517868069950444</v>
@@ -11461,7 +11401,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.422287056041863</v>
+        <v>1.376898468912413</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.421113842222537</v>
@@ -11550,7 +11490,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.405885098602381</v>
+        <v>1.365785116531072</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.511707033627759</v>
@@ -11639,7 +11579,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.413311837258558</v>
+        <v>1.368593122136003</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.231660726556418</v>
@@ -11728,7 +11668,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.409292808429996</v>
+        <v>1.360928299861557</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.616502749402645</v>
@@ -11817,7 +11757,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.412030266873908</v>
+        <v>1.370889391705626</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.860685759391005</v>
@@ -11906,7 +11846,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.424716322462019</v>
+        <v>1.375466943103448</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.728376127892265</v>
@@ -11995,7 +11935,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.427089900051995</v>
+        <v>1.381919481234539</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.581548292247638</v>
@@ -12084,7 +12024,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.432945875697892</v>
+        <v>1.388224071513384</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.874231551527232</v>
@@ -12173,7 +12113,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.445258135278903</v>
+        <v>1.398030070080325</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.610663113569243</v>
@@ -12262,7 +12202,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.443630728693146</v>
+        <v>1.394447218885835</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.889102873282518</v>
@@ -12351,7 +12291,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.440679200978119</v>
+        <v>1.397391351741978</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.592011278205071</v>
@@ -12440,7 +12380,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.456401428827568</v>
+        <v>1.408877331160452</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.483514399786016</v>
@@ -12529,7 +12469,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.460869601618157</v>
+        <v>1.40747577997506</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.823762634760669</v>
@@ -12618,7 +12558,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.474483379013929</v>
+        <v>1.408850553403977</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.288466338596032</v>
@@ -12707,7 +12647,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.469317270615147</v>
+        <v>1.412842863318428</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.746287646867525</v>
@@ -12796,7 +12736,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.463064675758601</v>
+        <v>1.401918093112291</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.520363048443452</v>
@@ -12885,7 +12825,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.470366689064897</v>
+        <v>1.401118921737704</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.628453709817049</v>
@@ -12974,7 +12914,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.454409174219765</v>
+        <v>1.39501975030696</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.624222778860717</v>
@@ -13063,7 +13003,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.461147647887356</v>
+        <v>1.398446000314486</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.611614401570145</v>
@@ -13152,7 +13092,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.44789502467772</v>
+        <v>1.387652242483109</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.574334116235747</v>
@@ -13241,7 +13181,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.436774093821505</v>
+        <v>1.381288953202572</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.504578591891434</v>
@@ -13330,7 +13270,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.44547426068636</v>
+        <v>1.387409694362826</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.526341311922178</v>
@@ -13419,7 +13359,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.443542771222567</v>
+        <v>1.384915709740206</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.615038389475752</v>
@@ -13508,7 +13448,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.436195075396645</v>
+        <v>1.377909226306231</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.543418005014015</v>
@@ -13597,7 +13537,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.437216198480037</v>
+        <v>1.37643298015758</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.56552562331248</v>
@@ -13686,7 +13626,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.431822918104274</v>
+        <v>1.371526423177963</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.507713045709875</v>
@@ -13775,7 +13715,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.434399257161673</v>
+        <v>1.372146371561904</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.565968632810046</v>
@@ -13864,7 +13804,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.439364675654928</v>
+        <v>1.384400124732836</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.519007210556709</v>
@@ -13953,7 +13893,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.436595779729322</v>
+        <v>1.384766580988365</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.355757684032228</v>
@@ -14042,7 +13982,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.435627637420933</v>
+        <v>1.383659622814405</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.566642850885521</v>
@@ -14131,7 +14071,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.425722100936498</v>
+        <v>1.37700662725656</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.627398919935348</v>
@@ -14220,7 +14160,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.429553863433632</v>
+        <v>1.383635294937586</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.270744367123571</v>
@@ -14309,7 +14249,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.428903371710258</v>
+        <v>1.381825312788965</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.70335539708155</v>
@@ -14595,7 +14535,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.514640931433956</v>
+        <v>1.456478703160912</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.202393468903894</v>
@@ -14684,7 +14624,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.510991580828939</v>
+        <v>1.454856844287628</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.995677690810879</v>
@@ -14773,7 +14713,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.514470791882115</v>
+        <v>1.460616081183871</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.02517330778715</v>
@@ -14862,7 +14802,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504361332292645</v>
+        <v>1.455188077499867</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.221391102840272</v>
@@ -14951,7 +14891,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.511041564461858</v>
+        <v>1.457867658569265</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.105027402302145</v>
@@ -15040,7 +14980,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.517980276203453</v>
+        <v>1.462377673978405</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.116920202132976</v>
@@ -15129,7 +15069,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.516514251629072</v>
+        <v>1.464798203457951</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.324237765695414</v>
@@ -15218,7 +15158,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.517919830174214</v>
+        <v>1.466932783568663</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.024894567322308</v>
@@ -15307,7 +15247,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.514825726486004</v>
+        <v>1.463978328619517</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.588401177109395</v>
@@ -15396,7 +15336,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.519195881510023</v>
+        <v>1.464660060006874</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.7101960247123</v>
@@ -15485,7 +15425,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.532368966082502</v>
+        <v>1.477725993290936</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.610125305125134</v>
@@ -15574,7 +15514,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.536335875832294</v>
+        <v>1.48167818624383</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.5793778970224</v>
@@ -15663,7 +15603,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.533319481312041</v>
+        <v>1.476489723282605</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.507534154550451</v>
@@ -15752,7 +15692,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.527197374946245</v>
+        <v>1.474312147071105</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.56844578151863</v>
@@ -15841,7 +15781,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.535813671929641</v>
+        <v>1.477907101801025</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.513500556770712</v>
@@ -15930,7 +15870,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.528739967626904</v>
+        <v>1.464056937139703</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.732884064794223</v>
@@ -16019,7 +15959,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.526031458929497</v>
+        <v>1.463397771683085</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.629565133624829</v>
@@ -16108,7 +16048,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.521978555320534</v>
+        <v>1.455665818612093</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.649814747319251</v>
@@ -16197,7 +16137,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.516857982738089</v>
+        <v>1.45366087588023</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.833809910472166</v>
@@ -16286,7 +16226,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.506480670201065</v>
+        <v>1.449965000714687</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.691068949558774</v>
@@ -16375,7 +16315,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.511861703153648</v>
+        <v>1.45351250996633</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.780685300230356</v>
@@ -16464,7 +16404,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.510700088593715</v>
+        <v>1.450325943462764</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.639383411516453</v>
@@ -16553,7 +16493,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.516391102868826</v>
+        <v>1.452104008228497</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.482581438323111</v>
@@ -16642,7 +16582,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.519528121389762</v>
+        <v>1.455654210347404</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.825348205638931</v>
@@ -16731,7 +16671,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.527026428885663</v>
+        <v>1.467407900061539</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.853949687465433</v>
@@ -16820,7 +16760,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.533597235347112</v>
+        <v>1.469146772551477</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.029507821508739</v>
@@ -16909,7 +16849,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.538018145852762</v>
+        <v>1.471683832852599</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.858357291650722</v>
@@ -16998,7 +16938,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.534156234146771</v>
+        <v>1.471195164008286</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.073750292503142</v>
@@ -17087,7 +17027,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.537527252098238</v>
+        <v>1.469596548006441</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.085799031940192</v>
@@ -17176,7 +17116,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.540244647646742</v>
+        <v>1.471640708495252</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.930256467676528</v>
@@ -17265,7 +17205,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.539660079897852</v>
+        <v>1.474705992258596</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.048984760729451</v>
@@ -17354,7 +17294,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.547886954957106</v>
+        <v>1.477612292373645</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.96316044168805</v>
@@ -17443,7 +17383,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560233840781367</v>
+        <v>1.48330799855479</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.755414439592588</v>
@@ -17532,7 +17472,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.575063351109947</v>
+        <v>1.489469063996333</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.600539033300539</v>
@@ -17621,7 +17561,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.566136144750382</v>
+        <v>1.489405654208356</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.040334652733546</v>
@@ -17710,7 +17650,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.565866566225697</v>
+        <v>1.490067117594375</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.102854912347514</v>
@@ -17799,7 +17739,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.564064018284791</v>
+        <v>1.485805760351427</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.600451470314344</v>
@@ -17888,7 +17828,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.553394259525068</v>
+        <v>1.487536507342419</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.599569821738364</v>
@@ -17977,7 +17917,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.545043040075117</v>
+        <v>1.475536261020679</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.530207646181628</v>
@@ -18066,7 +18006,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.543101626343052</v>
+        <v>1.47631819060883</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.595464698600316</v>
@@ -18155,7 +18095,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53324044608354</v>
+        <v>1.469177596261666</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.64558281503423</v>
@@ -18244,7 +18184,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.531483418805069</v>
+        <v>1.467414026331634</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.679604251287488</v>
@@ -18333,7 +18273,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.534128993919178</v>
+        <v>1.468268158225234</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.619855304433976</v>
@@ -18422,7 +18362,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.537598452061622</v>
+        <v>1.477025913992353</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.650268310214081</v>
@@ -18511,7 +18451,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.531526511039781</v>
+        <v>1.464665696502197</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.457130726145932</v>
@@ -18600,7 +18540,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.521645485870402</v>
+        <v>1.457150246503597</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.335927333621702</v>
@@ -18689,7 +18629,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.511048007457634</v>
+        <v>1.454791170348582</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.491614632224517</v>
@@ -18778,7 +18718,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.508919308775179</v>
+        <v>1.453953082175184</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.388843229796898</v>
@@ -18867,7 +18807,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.500453775432102</v>
+        <v>1.446786407322378</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.687150615433303</v>
@@ -18956,7 +18896,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.504407129800609</v>
+        <v>1.445766009329255</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.411125728625287</v>
@@ -19045,7 +18985,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.496764781318303</v>
+        <v>1.436822077586334</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.438566904768261</v>
@@ -19134,7 +19074,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.503338440370387</v>
+        <v>1.437677389713098</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.452199221189936</v>
@@ -19223,7 +19163,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.4958145338092</v>
+        <v>1.431460915044678</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.839177719160697</v>
@@ -19509,7 +19449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.474602745824065</v>
+        <v>1.42228179003554</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.740843960304303</v>
@@ -19598,7 +19538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.469495201558143</v>
+        <v>1.419730807512528</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.558654892559643</v>
@@ -19687,7 +19627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.469793378741274</v>
+        <v>1.419360430624093</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.599688542994558</v>
@@ -19776,7 +19716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.45834014687116</v>
+        <v>1.404641525242637</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.868358971210819</v>
@@ -19865,7 +19805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.464454476090149</v>
+        <v>1.414330987061883</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.588190887073246</v>
@@ -19954,7 +19894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.480312773239473</v>
+        <v>1.427361211174248</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.712150668106984</v>
@@ -20043,7 +19983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.485935470756137</v>
+        <v>1.438713344591942</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.785297693335622</v>
@@ -20132,7 +20072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.495054428696179</v>
+        <v>1.451663441380164</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.589007555409001</v>
@@ -20221,7 +20161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.493218959054265</v>
+        <v>1.438121104691603</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.441785886135487</v>
@@ -20310,7 +20250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.491456044066584</v>
+        <v>1.433982440599892</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.444773133633324</v>
@@ -20399,7 +20339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.500464574337205</v>
+        <v>1.442003058075087</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.632348450939041</v>
@@ -20488,7 +20428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.512348070607178</v>
+        <v>1.452304860978439</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.48652559378464</v>
@@ -20577,7 +20517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.510511813672327</v>
+        <v>1.450909834488328</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.569475391399582</v>
@@ -20666,7 +20606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.500092852471489</v>
+        <v>1.444564328150006</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.630233539614035</v>
@@ -20755,7 +20695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.498049369631054</v>
+        <v>1.43917817870107</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.607162092842715</v>
@@ -20844,7 +20784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491160926087535</v>
+        <v>1.428669669536811</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.459696310151613</v>
@@ -20933,7 +20873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.488102747638141</v>
+        <v>1.422850552601705</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.585327500889747</v>
@@ -21022,7 +20962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.481098885990271</v>
+        <v>1.414640651311137</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.578689250965385</v>
@@ -21111,7 +21051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.487939315106284</v>
+        <v>1.423017505332597</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.513156840610616</v>
@@ -21200,7 +21140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.478658543067314</v>
+        <v>1.416092316379401</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.677624775574155</v>
@@ -21289,7 +21229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.482800051792413</v>
+        <v>1.415327005198713</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.665770217868114</v>
@@ -21378,7 +21318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.479860908545469</v>
+        <v>1.412226884879039</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.661013600831553</v>
@@ -21467,7 +21407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.495265480923642</v>
+        <v>1.425683816715885</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.299755210874638</v>
@@ -21556,7 +21496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.502417990975965</v>
+        <v>1.429162414738045</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.630681183729238</v>
@@ -21645,7 +21585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.49728900985728</v>
+        <v>1.431426655021265</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.822361710130872</v>
@@ -21734,7 +21674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.49874024810088</v>
+        <v>1.429435123408011</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.771425381430303</v>
@@ -21823,7 +21763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.489754757797846</v>
+        <v>1.422489491206041</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.616922352487109</v>
@@ -21912,7 +21852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.487311138736062</v>
+        <v>1.424579023894491</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.880309247479193</v>
@@ -22001,7 +21941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.495592889497222</v>
+        <v>1.43027112755501</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.614301447078432</v>
@@ -22090,7 +22030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.495325715383436</v>
+        <v>1.430495182764299</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.768958111388232</v>
@@ -22179,7 +22119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.504263655541096</v>
+        <v>1.438465779156017</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.59598457167402</v>
@@ -22268,7 +22208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.50356520445563</v>
+        <v>1.441225302754151</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.793358768893087</v>
@@ -22357,7 +22297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.506588238703632</v>
+        <v>1.442495563638723</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.192283063029281</v>
@@ -22446,7 +22386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.512420326801355</v>
+        <v>1.434014631914589</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.350299204477753</v>
@@ -22535,7 +22475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508376852928929</v>
+        <v>1.437671390651947</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.573287212241022</v>
@@ -22624,7 +22564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.507250801333029</v>
+        <v>1.440593366584952</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.734936716944572</v>
@@ -22713,7 +22653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.507176205945169</v>
+        <v>1.438801224416313</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.64398270834057</v>
@@ -22802,7 +22742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.499777141851766</v>
+        <v>1.43448421563526</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.636214649212075</v>
@@ -22891,7 +22831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.49633474821592</v>
+        <v>1.429078494183685</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.644070530804391</v>
@@ -22980,7 +22920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.492829631435773</v>
+        <v>1.428369149086983</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.632545259639835</v>
@@ -23069,7 +23009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.495163967476688</v>
+        <v>1.432064807749635</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.55754768258077</v>
@@ -23158,7 +23098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.501361970160732</v>
+        <v>1.432656834217582</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.63275109887865</v>
@@ -23247,7 +23187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.499783803997936</v>
+        <v>1.429444047919409</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.592767451336464</v>
@@ -23336,7 +23276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.497123222252785</v>
+        <v>1.423211487211086</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.679183392802558</v>
@@ -23425,7 +23365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.494702393572513</v>
+        <v>1.419716647533093</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.545299817967687</v>
@@ -23514,7 +23454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.487982444558436</v>
+        <v>1.415348511106745</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.337420577165791</v>
@@ -23603,7 +23543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.488424270068799</v>
+        <v>1.415028070650189</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.423189353067186</v>
@@ -23692,7 +23632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.502757217444791</v>
+        <v>1.431218866073941</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.41644077199843</v>
@@ -23781,7 +23721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.506729182076564</v>
+        <v>1.444682213954237</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.631910586301607</v>
@@ -23870,7 +23810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.501997208004462</v>
+        <v>1.437857783375413</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.369292687408135</v>
@@ -23959,7 +23899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.484343854958466</v>
+        <v>1.422788248614641</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.475418701051339</v>
@@ -24048,7 +23988,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.47752276612886</v>
+        <v>1.415183650150155</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.777870749848777</v>
@@ -24137,7 +24077,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.467917328968033</v>
+        <v>1.411237018845701</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.026979502827631</v>
@@ -24423,7 +24363,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.462470537441169</v>
+        <v>1.439376995537715</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.73711811933997</v>
@@ -24512,7 +24452,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.481129739215446</v>
+        <v>1.450725025037352</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.801393280436534</v>
@@ -24601,7 +24541,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.474911150740988</v>
+        <v>1.450116705615444</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.737700444684869</v>
@@ -24690,7 +24630,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.470350287982502</v>
+        <v>1.443642374472096</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.782929672141056</v>
@@ -24779,7 +24719,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.468918326183033</v>
+        <v>1.452838911424719</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.609777869234875</v>
@@ -24868,7 +24808,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.475230472482294</v>
+        <v>1.459135076921635</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.56972648905191</v>
@@ -24957,7 +24897,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470983540807666</v>
+        <v>1.450818123372786</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.858411083874953</v>
@@ -25046,7 +24986,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.481652364365464</v>
+        <v>1.465688511047456</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.580182273144736</v>
@@ -25135,7 +25075,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.487165482577983</v>
+        <v>1.460081752918606</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.738450534208589</v>
@@ -25224,7 +25164,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.46921803798644</v>
+        <v>1.442212766748739</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.732203576659122</v>
@@ -25313,7 +25253,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.44688732476252</v>
+        <v>1.419303336704577</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.747478391178662</v>
@@ -25402,7 +25342,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.450468064568621</v>
+        <v>1.416897048375681</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.850596026414693</v>
@@ -25491,7 +25431,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.455114303887064</v>
+        <v>1.422295284979649</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.714511207798037</v>
@@ -25580,7 +25520,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.449962691288659</v>
+        <v>1.415248834906502</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.828799369142442</v>
@@ -25669,7 +25609,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.451162025900109</v>
+        <v>1.417066982100306</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.7961401993845</v>
@@ -25758,7 +25698,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.446701754144578</v>
+        <v>1.407812231205839</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.629108372529281</v>
@@ -25847,7 +25787,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.450365169243135</v>
+        <v>1.408487261734935</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.618416297545558</v>
@@ -25936,7 +25876,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.45305434040953</v>
+        <v>1.410630982893526</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.88285224429519</v>
@@ -26025,7 +25965,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.444998421834931</v>
+        <v>1.407459750796519</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.778153971881093</v>
@@ -26114,7 +26054,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.447882426549777</v>
+        <v>1.405514280967755</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.674917496627903</v>
@@ -26203,7 +26143,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.460960284108391</v>
+        <v>1.416737190662515</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.876974492946456</v>
@@ -26292,7 +26232,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.455511282308763</v>
+        <v>1.414541603149244</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.696613874893976</v>
@@ -26381,7 +26321,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.459224438080788</v>
+        <v>1.417414004560248</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.551532047913645</v>
@@ -26470,7 +26410,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.460808311248135</v>
+        <v>1.415329329644716</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.682097976285888</v>
@@ -26559,7 +26499,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.482995071567007</v>
+        <v>1.440674112128108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.932095981808519</v>
@@ -26648,7 +26588,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.499218402344087</v>
+        <v>1.449124233500661</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.859203457834264</v>
@@ -26737,7 +26677,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.50323428980072</v>
+        <v>1.458447068603965</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.788163767349953</v>
@@ -26826,7 +26766,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.499636029635254</v>
+        <v>1.458898524844266</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.02021617762143</v>
@@ -26915,7 +26855,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.508647561140357</v>
+        <v>1.469280050267076</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.82466668546082</v>
@@ -27004,7 +26944,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.516860956700103</v>
+        <v>1.474851159715734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.719330318266585</v>
@@ -27093,7 +27033,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.520493355736913</v>
+        <v>1.477981506394295</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.824519675934671</v>
@@ -27182,7 +27122,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.525184822034443</v>
+        <v>1.481344033664414</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.076270149089578</v>
@@ -27271,7 +27211,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.520932344583676</v>
+        <v>1.473811862622564</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.730972414841544</v>
@@ -27360,7 +27300,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.532142636935454</v>
+        <v>1.465171216651692</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.769805567556509</v>
@@ -27449,7 +27389,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.52893604343913</v>
+        <v>1.467417477125179</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.969881794893931</v>
@@ -27538,7 +27478,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.525410973528918</v>
+        <v>1.462937250636734</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.069361429530532</v>
@@ -27627,7 +27567,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.510344039404327</v>
+        <v>1.446582878712007</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.668416390155972</v>
@@ -27716,7 +27656,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.50077849537493</v>
+        <v>1.436101610442347</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.740479712319635</v>
@@ -27805,7 +27745,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.491443144832753</v>
+        <v>1.428388806354528</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.67530810815594</v>
@@ -27894,7 +27834,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.484786436915878</v>
+        <v>1.421504825459463</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.717112266431652</v>
@@ -27983,7 +27923,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.468006711559569</v>
+        <v>1.411383248022482</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.723658081749519</v>
@@ -28072,7 +28012,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.456907564096702</v>
+        <v>1.401015317628338</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.607260691204521</v>
@@ -28161,7 +28101,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.442894250818197</v>
+        <v>1.388114845324119</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.568013417465725</v>
@@ -28250,7 +28190,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.437081840900802</v>
+        <v>1.386494919415634</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.610206956128057</v>
@@ -28339,7 +28279,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.435076337168733</v>
+        <v>1.383490898047428</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.563649293741481</v>
@@ -28428,7 +28368,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.436579843423924</v>
+        <v>1.385850819816459</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.438700858112209</v>
@@ -28517,7 +28457,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.43371655390232</v>
+        <v>1.388159023516548</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.433300941160192</v>
@@ -28606,7 +28546,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.439305085271822</v>
+        <v>1.398411521028415</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.451337836889962</v>
@@ -28695,7 +28635,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.440663283446342</v>
+        <v>1.410141968874953</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.466833105873715</v>
@@ -28784,7 +28724,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.433655751012072</v>
+        <v>1.406582424288771</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.386393988032864</v>
@@ -28873,7 +28813,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.432723462690381</v>
+        <v>1.408621262747277</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.433651265466946</v>
@@ -28962,7 +28902,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.448039719453434</v>
+        <v>1.419466285557259</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.377902048658177</v>
@@ -29051,7 +28991,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.440860253240618</v>
+        <v>1.424184927966222</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.76157628362001</v>
@@ -29337,7 +29277,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.375841851080736</v>
+        <v>1.357499219264509</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.316246832443286</v>
@@ -29426,7 +29366,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.388977471265014</v>
+        <v>1.365147351899383</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.280814690652583</v>
@@ -29515,7 +29455,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.38327438703716</v>
+        <v>1.360263104388999</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.408015465822447</v>
@@ -29604,7 +29544,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.378278371836424</v>
+        <v>1.354208321090517</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.277552792751422</v>
@@ -29693,7 +29633,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.404710745074267</v>
+        <v>1.379301268206308</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.2280940178167</v>
@@ -29782,7 +29722,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408921190877341</v>
+        <v>1.382557512846082</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.319404231211864</v>
@@ -29871,7 +29811,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.414383814409056</v>
+        <v>1.389635084499692</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.277888119583564</v>
@@ -29960,7 +29900,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.42248098785538</v>
+        <v>1.404828986540532</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.400816819026187</v>
@@ -30049,7 +29989,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.404324843376682</v>
+        <v>1.3858915429049</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.298094130395269</v>
@@ -30138,7 +30078,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.425077392592737</v>
+        <v>1.401149588410877</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.147482295539849</v>
@@ -30227,7 +30167,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.476892005927866</v>
+        <v>1.446046978627619</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.552226575765894</v>
@@ -30316,7 +30256,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.49046388432393</v>
+        <v>1.456709857249844</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.502743824796554</v>
@@ -30405,7 +30345,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.468518823886909</v>
+        <v>1.439390161827908</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.5005798208067</v>
@@ -30494,7 +30434,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.463485879973616</v>
+        <v>1.436155249998688</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.561617625113545</v>
@@ -30583,7 +30523,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.468340025267459</v>
+        <v>1.437769109711182</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.56956870264818</v>
@@ -30672,7 +30612,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.463703176975621</v>
+        <v>1.428441743710327</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.512227147148726</v>
@@ -30761,7 +30701,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.480213147707079</v>
+        <v>1.438355541285051</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.693804797757608</v>
@@ -30850,7 +30790,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.461640295907582</v>
+        <v>1.419886862816879</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.436851180352523</v>
@@ -30939,7 +30879,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.44324923333591</v>
+        <v>1.406245660857393</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.408912360593722</v>
@@ -31028,7 +30968,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.435894609284886</v>
+        <v>1.397176271538983</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.488919125512798</v>
@@ -31117,7 +31057,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.440823656826919</v>
+        <v>1.401350280369088</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.507649124349154</v>
@@ -31206,7 +31146,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.420159354791087</v>
+        <v>1.384698632744872</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.595152783639284</v>
@@ -31295,7 +31235,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.431851727013008</v>
+        <v>1.389359089999817</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.421278634464939</v>
@@ -31384,7 +31324,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.42227104473333</v>
+        <v>1.376153262123568</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.581619714807726</v>
@@ -31473,7 +31413,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.416432126029409</v>
+        <v>1.374677326466659</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.41860891511147</v>
@@ -31562,7 +31502,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.412139281559408</v>
+        <v>1.366870225137936</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.500755807754516</v>
@@ -31651,7 +31591,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.390933924163027</v>
+        <v>1.349667792535199</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.480533104470581</v>
@@ -31740,7 +31680,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.386550717758864</v>
+        <v>1.346122971255561</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.449038850926605</v>
@@ -31829,7 +31769,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.388722681590989</v>
+        <v>1.347214546044101</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.465242507402468</v>
@@ -31918,7 +31858,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.392894866790694</v>
+        <v>1.347826283080889</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.496995176941492</v>
@@ -32007,7 +31947,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.394356007100118</v>
+        <v>1.350491964980598</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.493982632407344</v>
@@ -32096,7 +32036,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.393727633272618</v>
+        <v>1.350677471344789</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.312016598631917</v>
@@ -32185,7 +32125,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.423348791378207</v>
+        <v>1.37496171981567</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.282744981586328</v>
@@ -32274,7 +32214,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.420466763036116</v>
+        <v>1.363489935581873</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.605620785280051</v>
@@ -32363,7 +32303,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.417298026078827</v>
+        <v>1.366026181573881</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.558662836936181</v>
@@ -32452,7 +32392,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.411546524803368</v>
+        <v>1.357892975221292</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.620969532661963</v>
@@ -32541,7 +32481,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.405671515650304</v>
+        <v>1.345516257316403</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.91190997010128</v>
@@ -32630,7 +32570,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.353687244307537</v>
+        <v>1.316105931337395</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.893945417509297</v>
@@ -32719,7 +32659,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.372664737687975</v>
+        <v>1.336984561117621</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.911352079040928</v>
@@ -32808,7 +32748,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.377988975967722</v>
+        <v>1.34642312529516</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.899959205078867</v>
@@ -32897,7 +32837,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.374270752247893</v>
+        <v>1.344963576145094</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.942391976130357</v>
@@ -32986,7 +32926,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.386103929100395</v>
+        <v>1.354220628271081</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.939461651590932</v>
@@ -33075,7 +33015,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.40457291055507</v>
+        <v>1.368192540444369</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.903661986228284</v>
@@ -33164,7 +33104,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.401512681000253</v>
+        <v>1.366229402471039</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.904948224378102</v>
@@ -33253,7 +33193,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.396221452262223</v>
+        <v>1.360593962260414</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.86228234968567</v>
@@ -33342,7 +33282,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.392462103984455</v>
+        <v>1.359594936680422</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.848171505841219</v>
@@ -33431,7 +33371,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.388056537717486</v>
+        <v>1.356891013767167</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.857793305367499</v>
@@ -33520,7 +33460,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.37739819286228</v>
+        <v>1.351651992032689</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.850203144489963</v>
@@ -33609,7 +33549,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.365131175348107</v>
+        <v>1.345448535769859</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.900543696893863</v>
@@ -33698,7 +33638,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.361825566629504</v>
+        <v>1.342859413429116</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.851655836792655</v>
@@ -33787,7 +33727,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.373151311442936</v>
+        <v>1.352723237625393</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.87297721749049</v>
@@ -33876,7 +33816,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.409577610675023</v>
+        <v>1.38352471606856</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.684760815738632</v>
@@ -33965,7 +33905,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.439060823817443</v>
+        <v>1.408683702835944</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.199908010318165</v>
